--- a/name list_names.xlsx
+++ b/name list_names.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachuriga/Desktop/Genzel lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sachuriga/Desktop/code/Genzel_2025_advencalender/GenzelLab_2025_advencalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057D5386-7DEC-0344-BF35-89365B6B30C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC91BD-45B7-E848-9DE4-C3C75FBFADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2140" yWindow="680" windowWidth="13300" windowHeight="17460" xr2:uid="{0897AEC0-9139-894C-883F-3F0863C73D2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Whitney</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Chelsea Lyric</t>
   </si>
   <si>
-    <t>Lisa</t>
-  </si>
-  <si>
     <t>Yixiao</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
   </si>
   <si>
     <t>Adithya Sarma </t>
-  </si>
-  <si>
-    <t>Anna</t>
   </si>
   <si>
     <t>Kim</t>
@@ -173,18 +167,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -262,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -273,8 +261,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FFF2F8-4E8E-A849-9D6C-E68350FCB568}">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -632,152 +619,152 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
+      <c r="A7" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
+      <c r="A8" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
+      <c r="A9" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
+      <c r="A10" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
+      <c r="A11" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
+      <c r="A13" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
+      <c r="A14" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
+      <c r="A16" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>13</v>
+      <c r="A17" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>14</v>
+      <c r="A18" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
+      <c r="A19" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>16</v>
+      <c r="A20" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>17</v>
+      <c r="A21" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>19</v>
+      <c r="A24" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>20</v>
+      <c r="A25" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>21</v>
+      <c r="A26" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>22</v>
+      <c r="A27" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>25</v>
+      <c r="A29" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -786,22 +773,18 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>26</v>
+      <c r="A32" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="9"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="A34" s="9"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
